--- a/fix-seed.xlsx
+++ b/fix-seed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Oikawa\Documents\programs\reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B743FDE2-C9F4-44BC-A691-2F34892D0024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB2534-9079-4D78-9ADA-E752EAE70AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>T</t>
     <phoneticPr fontId="18"/>
@@ -39,13 +49,309 @@
   </si>
   <si>
     <t>win-rate</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1…10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1…11</t>
+  </si>
+  <si>
+    <t>1…12</t>
+  </si>
+  <si>
+    <t>1…13</t>
+  </si>
+  <si>
+    <t>1…14</t>
+  </si>
+  <si>
+    <t>1…15</t>
+  </si>
+  <si>
+    <t>1…16</t>
+  </si>
+  <si>
+    <t>1…17</t>
+  </si>
+  <si>
+    <t>1…18</t>
+  </si>
+  <si>
+    <t>1…19</t>
+  </si>
+  <si>
+    <t>1…20</t>
+  </si>
+  <si>
+    <t>1…21</t>
+  </si>
+  <si>
+    <t>1…22</t>
+  </si>
+  <si>
+    <t>1…23</t>
+  </si>
+  <si>
+    <t>1…24</t>
+  </si>
+  <si>
+    <t>1…25</t>
+  </si>
+  <si>
+    <t>1…26</t>
+  </si>
+  <si>
+    <t>1…27</t>
+  </si>
+  <si>
+    <t>1…28</t>
+  </si>
+  <si>
+    <t>1…29</t>
+  </si>
+  <si>
+    <t>1…30</t>
+  </si>
+  <si>
+    <t>1…31</t>
+  </si>
+  <si>
+    <t>1…32</t>
+  </si>
+  <si>
+    <t>1…33</t>
+  </si>
+  <si>
+    <t>1…34</t>
+  </si>
+  <si>
+    <t>1…35</t>
+  </si>
+  <si>
+    <t>1…36</t>
+  </si>
+  <si>
+    <t>1…37</t>
+  </si>
+  <si>
+    <t>1…38</t>
+  </si>
+  <si>
+    <t>1…39</t>
+  </si>
+  <si>
+    <t>1…40</t>
+  </si>
+  <si>
+    <t>1…41</t>
+  </si>
+  <si>
+    <t>1…42</t>
+  </si>
+  <si>
+    <t>1…43</t>
+  </si>
+  <si>
+    <t>1…44</t>
+  </si>
+  <si>
+    <t>1…45</t>
+  </si>
+  <si>
+    <t>1…46</t>
+  </si>
+  <si>
+    <t>1…47</t>
+  </si>
+  <si>
+    <t>1…48</t>
+  </si>
+  <si>
+    <t>1…49</t>
+  </si>
+  <si>
+    <t>1…50</t>
+  </si>
+  <si>
+    <t>1…51</t>
+  </si>
+  <si>
+    <t>1…52</t>
+  </si>
+  <si>
+    <t>1…53</t>
+  </si>
+  <si>
+    <t>1…54</t>
+  </si>
+  <si>
+    <t>1…55</t>
+  </si>
+  <si>
+    <t>1…56</t>
+  </si>
+  <si>
+    <t>1…57</t>
+  </si>
+  <si>
+    <t>1…58</t>
+  </si>
+  <si>
+    <t>1…59</t>
+  </si>
+  <si>
+    <t>1…60</t>
+  </si>
+  <si>
+    <t>1…61</t>
+  </si>
+  <si>
+    <t>1…62</t>
+  </si>
+  <si>
+    <t>1…63</t>
+  </si>
+  <si>
+    <t>1…64</t>
+  </si>
+  <si>
+    <t>1…65</t>
+  </si>
+  <si>
+    <t>1…66</t>
+  </si>
+  <si>
+    <t>1…67</t>
+  </si>
+  <si>
+    <t>1…68</t>
+  </si>
+  <si>
+    <t>1…69</t>
+  </si>
+  <si>
+    <t>1…70</t>
+  </si>
+  <si>
+    <t>1…71</t>
+  </si>
+  <si>
+    <t>1…72</t>
+  </si>
+  <si>
+    <t>1…73</t>
+  </si>
+  <si>
+    <t>1…74</t>
+  </si>
+  <si>
+    <t>1…75</t>
+  </si>
+  <si>
+    <t>1…76</t>
+  </si>
+  <si>
+    <t>1…77</t>
+  </si>
+  <si>
+    <t>1…78</t>
+  </si>
+  <si>
+    <t>1…79</t>
+  </si>
+  <si>
+    <t>1…80</t>
+  </si>
+  <si>
+    <t>1…81</t>
+  </si>
+  <si>
+    <t>1…82</t>
+  </si>
+  <si>
+    <t>1…83</t>
+  </si>
+  <si>
+    <t>1…84</t>
+  </si>
+  <si>
+    <t>1…85</t>
+  </si>
+  <si>
+    <t>1…86</t>
+  </si>
+  <si>
+    <t>1…87</t>
+  </si>
+  <si>
+    <t>1…88</t>
+  </si>
+  <si>
+    <t>1…89</t>
+  </si>
+  <si>
+    <t>1…90</t>
+  </si>
+  <si>
+    <t>1…91</t>
+  </si>
+  <si>
+    <t>1…92</t>
+  </si>
+  <si>
+    <t>1…93</t>
+  </si>
+  <si>
+    <t>1…94</t>
+  </si>
+  <si>
+    <t>1…95</t>
+  </si>
+  <si>
+    <t>1…96</t>
+  </si>
+  <si>
+    <t>1…97</t>
+  </si>
+  <si>
+    <t>1…98</t>
+  </si>
+  <si>
+    <t>1…99</t>
+  </si>
+  <si>
+    <t>1…100</t>
+  </si>
+  <si>
+    <t>直近10戦で取ると、60～70が一番勝率が高く、63あたりがベストか！？</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2156,16 +2462,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2489,16 +2795,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2534,7 +2840,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2553,7 +2859,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2572,7 +2878,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2591,7 +2897,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2610,7 +2916,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2629,7 +2935,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2648,7 +2954,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2667,7 +2973,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2686,7 +2992,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2704,8 +3010,15 @@
         <f t="shared" si="1"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>SUM(D2:D11) / 2000</f>
+        <v>0.83050000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2723,8 +3036,15 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>SUM(D3:D12) / 2000</f>
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2742,8 +3062,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <f>SUM(D4:D13) / 2000</f>
+        <v>0.86050000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2761,8 +3088,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f>SUM(D5:D14) / 2000</f>
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2780,8 +3114,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <f>SUM(D6:D15) / 2000</f>
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2799,8 +3140,15 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <f>SUM(D7:D16) / 2000</f>
+        <v>0.88249999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2818,8 +3166,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <f>SUM(D8:D17) / 2000</f>
+        <v>0.88649999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2837,8 +3192,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18">
+        <f>SUM(D9:D18) / 2000</f>
+        <v>0.88649999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2856,8 +3218,15 @@
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <f>SUM(D10:D19) / 2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2875,8 +3244,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <f>SUM(D11:D20) / 2000</f>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2894,8 +3270,15 @@
         <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <f>SUM(D12:D21) / 2000</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2913,8 +3296,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <f>SUM(D13:D22) / 2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2932,8 +3322,15 @@
         <f t="shared" si="1"/>
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f>SUM(D14:D23) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2951,8 +3348,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24">
+        <f>SUM(D15:D24) / 2000</f>
+        <v>0.87450000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2970,8 +3374,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <f>SUM(D16:D25) / 2000</f>
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2989,8 +3400,15 @@
         <f t="shared" si="1"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26">
+        <f>SUM(D17:D26) / 2000</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3008,8 +3426,15 @@
         <f t="shared" si="1"/>
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <f>SUM(D18:D27) / 2000</f>
+        <v>0.87450000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3027,8 +3452,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <f>SUM(D19:D28) / 2000</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3046,8 +3478,15 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <f>SUM(D20:D29) / 2000</f>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3065,8 +3504,15 @@
         <f t="shared" si="1"/>
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <f>SUM(D21:D30) / 2000</f>
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3084,8 +3530,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <f>SUM(D22:D31) / 2000</f>
+        <v>0.87150000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3103,8 +3556,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <f>SUM(D23:D32) / 2000</f>
+        <v>0.86950000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3122,8 +3582,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <f>SUM(D24:D33) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3141,8 +3608,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <f>SUM(D25:D34) / 2000</f>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3160,8 +3634,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <f>SUM(D26:D35) / 2000</f>
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3179,8 +3660,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <f>SUM(D27:D36) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3198,8 +3686,15 @@
         <f t="shared" si="1"/>
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <f>SUM(D28:D37) / 2000</f>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3217,8 +3712,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <f>SUM(D29:D38) / 2000</f>
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3236,8 +3738,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39">
+        <f>SUM(D30:D39) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3255,8 +3764,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40">
+        <f>SUM(D31:D40) / 2000</f>
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3274,8 +3790,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41">
+        <f>SUM(D32:D41) / 2000</f>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3293,8 +3816,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42">
+        <f>SUM(D33:D42) / 2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3312,8 +3842,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <f>SUM(D34:D43) / 2000</f>
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3331,8 +3868,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <f>SUM(D35:D44) / 2000</f>
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3350,8 +3894,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <f>SUM(D36:D45) / 2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3369,8 +3920,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46">
+        <f>SUM(D37:D46) / 2000</f>
+        <v>0.87749999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3388,8 +3946,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <f>SUM(D38:D47) / 2000</f>
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3407,8 +3972,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <f>SUM(D39:D48) / 2000</f>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3426,8 +3998,15 @@
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49">
+        <f>SUM(D40:D49) / 2000</f>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3445,8 +4024,15 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50">
+        <f>SUM(D41:D50) / 2000</f>
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3464,8 +4050,15 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51">
+        <f>SUM(D42:D51) / 2000</f>
+        <v>0.88849999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3483,8 +4076,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52">
+        <f>SUM(D43:D52) / 2000</f>
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3502,8 +4102,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53">
+        <f>SUM(D44:D53) / 2000</f>
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3521,8 +4128,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54">
+        <f>SUM(D45:D54) / 2000</f>
+        <v>0.88849999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3540,8 +4154,15 @@
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55">
+        <f>SUM(D46:D55) / 2000</f>
+        <v>0.89149999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3559,8 +4180,15 @@
         <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56">
+        <f>SUM(D47:D56) / 2000</f>
+        <v>0.89049999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3578,8 +4206,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <f>SUM(D48:D57) / 2000</f>
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3597,8 +4232,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <f>SUM(D49:D58) / 2000</f>
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3616,8 +4258,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <f>SUM(D50:D59) / 2000</f>
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3635,8 +4284,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <f>SUM(D51:D60) / 2000</f>
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3654,8 +4310,15 @@
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <f>SUM(D52:D61) / 2000</f>
+        <v>0.89249999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3673,8 +4336,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62">
+        <f>SUM(D53:D62) / 2000</f>
+        <v>0.89349999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3692,8 +4362,15 @@
         <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63">
+        <f>SUM(D54:D63) / 2000</f>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3711,8 +4388,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <f>SUM(D55:D64) / 2000</f>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3730,8 +4414,15 @@
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65">
+        <f>SUM(D56:D65) / 2000</f>
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3749,8 +4440,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66">
+        <f>SUM(D57:D66) / 2000</f>
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3768,8 +4466,15 @@
         <f t="shared" ref="E67:E101" si="3">D67/200</f>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67">
+        <f>SUM(D58:D67) / 2000</f>
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3787,8 +4492,15 @@
         <f t="shared" si="3"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68">
+        <f>SUM(D59:D68) / 2000</f>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3806,8 +4518,15 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <f>SUM(D60:D69) / 2000</f>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3825,8 +4544,15 @@
         <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70">
+        <f>SUM(D61:D70) / 2000</f>
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3844,8 +4570,15 @@
         <f t="shared" si="3"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <f>SUM(D62:D71) / 2000</f>
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3863,8 +4596,15 @@
         <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72">
+        <f>SUM(D63:D72) / 2000</f>
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3882,8 +4622,15 @@
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73">
+        <f>SUM(D64:D73) / 2000</f>
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3901,8 +4648,15 @@
         <f t="shared" si="3"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <f>SUM(D65:D74) / 2000</f>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3920,8 +4674,15 @@
         <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <f>SUM(D66:D75) / 2000</f>
+        <v>0.88449999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3939,8 +4700,15 @@
         <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76">
+        <f>SUM(D67:D76) / 2000</f>
+        <v>0.88649999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3958,8 +4726,15 @@
         <f t="shared" si="3"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77">
+        <f>SUM(D68:D77) / 2000</f>
+        <v>0.88549999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3977,8 +4752,15 @@
         <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78">
+        <f>SUM(D69:D78) / 2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3996,8 +4778,15 @@
         <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79">
+        <f>SUM(D70:D79) / 2000</f>
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4015,8 +4804,15 @@
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80">
+        <f>SUM(D71:D80) / 2000</f>
+        <v>0.87849999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4034,8 +4830,15 @@
         <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81">
+        <f>SUM(D72:D81) / 2000</f>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4053,8 +4856,15 @@
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G82" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82">
+        <f>SUM(D73:D82) / 2000</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4072,8 +4882,15 @@
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83">
+        <f>SUM(D74:D83) / 2000</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4091,8 +4908,15 @@
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G84" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84">
+        <f>SUM(D75:D84) / 2000</f>
+        <v>0.87150000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4110,8 +4934,15 @@
         <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G85" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85">
+        <f>SUM(D76:D85) / 2000</f>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4129,8 +4960,15 @@
         <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <f>SUM(D77:D86) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4148,8 +4986,15 @@
         <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G87" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87">
+        <f>SUM(D78:D87) / 2000</f>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4167,8 +5012,15 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88">
+        <f>SUM(D79:D88) / 2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4186,8 +5038,15 @@
         <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89">
+        <f>SUM(D80:D89) / 2000</f>
+        <v>0.87150000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4205,8 +5064,15 @@
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G90" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90">
+        <f>SUM(D81:D90) / 2000</f>
+        <v>0.87050000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4224,8 +5090,15 @@
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91">
+        <f>SUM(D82:D91) / 2000</f>
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4243,8 +5116,15 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92">
+        <f>SUM(D83:D92) / 2000</f>
+        <v>0.87050000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4262,8 +5142,15 @@
         <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G93" t="s">
+        <v>59</v>
+      </c>
+      <c r="H93">
+        <f>SUM(D84:D93) / 2000</f>
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4281,8 +5168,15 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G94" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94">
+        <f>SUM(D85:D94) / 2000</f>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4300,8 +5194,15 @@
         <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95">
+        <f>SUM(D86:D95) / 2000</f>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4319,8 +5220,15 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G96" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96">
+        <f>SUM(D87:D96) / 2000</f>
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4338,8 +5246,15 @@
         <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97">
+        <f>SUM(D88:D97) / 2000</f>
+        <v>0.87549999999999994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4357,8 +5272,15 @@
         <f t="shared" si="3"/>
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G98" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98">
+        <f>SUM(D89:D98) / 2000</f>
+        <v>0.87150000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4376,8 +5298,15 @@
         <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G99" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99">
+        <f>SUM(D90:D99) / 2000</f>
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4395,8 +5324,15 @@
         <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100">
+        <f>SUM(D91:D100) / 2000</f>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4414,10 +5350,24 @@
         <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
+      <c r="G101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101">
+        <f>SUM(D92:D101) / 2000</f>
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="J101" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:H101">
+    <sortCondition ref="H11"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/fix-seed.xlsx
+++ b/fix-seed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Oikawa\Documents\programs\reversi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oidoz\Documents\programs\reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB2534-9079-4D78-9ADA-E752EAE70AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E3D55-82FD-4587-A238-EC3E8065D815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -1757,6 +1757,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1805,6 +1865,8 @@
         <c:axId val="1761828911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1822,6 +1884,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>勝率 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2798,13 +2920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2840,7 +2962,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2859,7 +2981,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2878,7 +3000,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2897,7 +3019,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2916,7 +3038,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2935,7 +3057,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2954,7 +3076,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2973,7 +3095,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2992,7 +3114,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3014,11 +3136,11 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f>SUM(D2:D11) / 2000</f>
+        <f t="shared" ref="H11:H42" si="2">SUM(D2:D11) / 2000</f>
         <v>0.83050000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3040,11 +3162,11 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <f>SUM(D3:D12) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3066,11 +3188,11 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <f>SUM(D4:D13) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.86050000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3092,11 +3214,11 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <f>SUM(D5:D14) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3118,11 +3240,11 @@
         <v>85</v>
       </c>
       <c r="H15">
-        <f>SUM(D6:D15) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3144,11 +3266,11 @@
         <v>26</v>
       </c>
       <c r="H16">
-        <f>SUM(D7:D16) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3170,11 +3292,11 @@
         <v>84</v>
       </c>
       <c r="H17">
-        <f>SUM(D8:D17) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3196,11 +3318,11 @@
         <v>86</v>
       </c>
       <c r="H18">
-        <f>SUM(D9:D18) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3222,11 +3344,11 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <f>SUM(D10:D19) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3248,11 +3370,11 @@
         <v>78</v>
       </c>
       <c r="H20">
-        <f>SUM(D11:D20) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3274,11 +3396,11 @@
         <v>83</v>
       </c>
       <c r="H21">
-        <f>SUM(D12:D21) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3300,11 +3422,11 @@
         <v>92</v>
       </c>
       <c r="H22">
-        <f>SUM(D13:D22) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3326,11 +3448,11 @@
         <v>22</v>
       </c>
       <c r="H23">
-        <f>SUM(D14:D23) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3352,11 +3474,11 @@
         <v>76</v>
       </c>
       <c r="H24">
-        <f>SUM(D15:D24) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3378,11 +3500,11 @@
         <v>77</v>
       </c>
       <c r="H25">
-        <f>SUM(D16:D25) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3404,11 +3526,11 @@
         <v>93</v>
       </c>
       <c r="H26">
-        <f>SUM(D17:D26) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3430,11 +3552,11 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <f>SUM(D18:D27) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3456,11 +3578,11 @@
         <v>24</v>
       </c>
       <c r="H28">
-        <f>SUM(D19:D28) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.872</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3482,11 +3604,11 @@
         <v>87</v>
       </c>
       <c r="H29">
-        <f>SUM(D20:D29) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.877</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3508,11 +3630,11 @@
         <v>75</v>
       </c>
       <c r="H30">
-        <f>SUM(D21:D30) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3534,11 +3656,11 @@
         <v>81</v>
       </c>
       <c r="H31">
-        <f>SUM(D22:D31) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87150000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3560,11 +3682,11 @@
         <v>18</v>
       </c>
       <c r="H32">
-        <f>SUM(D23:D32) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3586,11 +3708,11 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <f>SUM(D24:D33) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3612,11 +3734,11 @@
         <v>17</v>
       </c>
       <c r="H34">
-        <f>SUM(D25:D34) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.876</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3638,11 +3760,11 @@
         <v>27</v>
       </c>
       <c r="H35">
-        <f>SUM(D26:D35) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3664,11 +3786,11 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <f>SUM(D27:D36) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3690,11 +3812,11 @@
         <v>33</v>
       </c>
       <c r="H37">
-        <f>SUM(D28:D37) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.876</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3716,11 +3838,11 @@
         <v>80</v>
       </c>
       <c r="H38">
-        <f>SUM(D29:D38) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3742,11 +3864,11 @@
         <v>82</v>
       </c>
       <c r="H39">
-        <f>SUM(D30:D39) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3768,11 +3890,11 @@
         <v>91</v>
       </c>
       <c r="H40">
-        <f>SUM(D31:D40) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.879</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3794,11 +3916,11 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <f>SUM(D32:D41) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.877</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3820,11 +3942,11 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <f>SUM(D33:D42) / 2000</f>
+        <f t="shared" si="2"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3846,11 +3968,11 @@
         <v>19</v>
       </c>
       <c r="H43">
-        <f>SUM(D34:D43) / 2000</f>
+        <f t="shared" ref="H43:H74" si="3">SUM(D34:D43) / 2000</f>
         <v>0.879</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3872,11 +3994,11 @@
         <v>29</v>
       </c>
       <c r="H44">
-        <f>SUM(D35:D44) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88149999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3898,11 +4020,11 @@
         <v>32</v>
       </c>
       <c r="H45">
-        <f>SUM(D36:D45) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3924,11 +4046,11 @@
         <v>23</v>
       </c>
       <c r="H46">
-        <f>SUM(D37:D46) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3950,11 +4072,11 @@
         <v>35</v>
       </c>
       <c r="H47">
-        <f>SUM(D38:D47) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3976,11 +4098,11 @@
         <v>40</v>
       </c>
       <c r="H48">
-        <f>SUM(D39:D48) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4002,11 +4124,11 @@
         <v>79</v>
       </c>
       <c r="H49">
-        <f>SUM(D40:D49) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4028,11 +4150,11 @@
         <v>88</v>
       </c>
       <c r="H50">
-        <f>SUM(D41:D50) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4054,11 +4176,11 @@
         <v>89</v>
       </c>
       <c r="H51">
-        <f>SUM(D42:D51) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88849999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4080,11 +4202,11 @@
         <v>94</v>
       </c>
       <c r="H52">
-        <f>SUM(D43:D52) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4106,11 +4228,11 @@
         <v>74</v>
       </c>
       <c r="H53">
-        <f>SUM(D44:D53) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4132,11 +4254,11 @@
         <v>34</v>
       </c>
       <c r="H54">
-        <f>SUM(D45:D54) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88849999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4158,11 +4280,11 @@
         <v>37</v>
       </c>
       <c r="H55">
-        <f>SUM(D46:D55) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89149999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4184,11 +4306,11 @@
         <v>90</v>
       </c>
       <c r="H56">
-        <f>SUM(D47:D56) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4210,11 +4332,11 @@
         <v>15</v>
       </c>
       <c r="H57">
-        <f>SUM(D48:D57) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4236,11 +4358,11 @@
         <v>20</v>
       </c>
       <c r="H58">
-        <f>SUM(D49:D58) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4262,11 +4384,11 @@
         <v>13</v>
       </c>
       <c r="H59">
-        <f>SUM(D50:D59) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4288,11 +4410,11 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <f>SUM(D51:D60) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4314,11 +4436,11 @@
         <v>36</v>
       </c>
       <c r="H61">
-        <f>SUM(D52:D61) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89249999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4340,11 +4462,11 @@
         <v>39</v>
       </c>
       <c r="H62">
-        <f>SUM(D53:D62) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89349999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4366,11 +4488,11 @@
         <v>72</v>
       </c>
       <c r="H63">
-        <f>SUM(D54:D63) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4392,11 +4514,11 @@
         <v>14</v>
       </c>
       <c r="H64">
-        <f>SUM(D55:D64) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4418,11 +4540,11 @@
         <v>42</v>
       </c>
       <c r="H65">
-        <f>SUM(D56:D65) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89449999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4444,11 +4566,11 @@
         <v>38</v>
       </c>
       <c r="H66">
-        <f>SUM(D57:D66) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4456,25 +4578,25 @@
         <v>91</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="2">D67-B67</f>
+        <f t="shared" ref="C67:C101" si="4">D67-B67</f>
         <v>94</v>
       </c>
       <c r="D67">
         <v>185</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="3">D67/200</f>
+        <f t="shared" ref="E67:E101" si="5">D67/200</f>
         <v>0.92500000000000004</v>
       </c>
       <c r="G67" t="s">
         <v>95</v>
       </c>
       <c r="H67">
-        <f>SUM(D58:D67) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4482,25 +4604,25 @@
         <v>92</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D68">
         <v>183</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
       </c>
       <c r="H68">
-        <f>SUM(D59:D68) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4508,25 +4630,25 @@
         <v>90</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="D69">
         <v>175</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
       </c>
       <c r="H69">
-        <f>SUM(D60:D69) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4534,25 +4656,25 @@
         <v>91</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D70">
         <v>182</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91</v>
       </c>
       <c r="G70" t="s">
         <v>73</v>
       </c>
       <c r="H70">
-        <f>SUM(D61:D70) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90549999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4560,25 +4682,25 @@
         <v>92</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D71">
         <v>186</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
       <c r="G71" t="s">
         <v>69</v>
       </c>
       <c r="H71">
-        <f>SUM(D62:D71) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90549999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4586,25 +4708,25 @@
         <v>87</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="D72">
         <v>174</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="G72" t="s">
         <v>71</v>
       </c>
       <c r="H72">
-        <f>SUM(D63:D72) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4612,25 +4734,25 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="D73">
         <v>172</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86</v>
       </c>
       <c r="G73" t="s">
         <v>53</v>
       </c>
       <c r="H73">
-        <f>SUM(D64:D73) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4638,25 +4760,25 @@
         <v>83</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="D74">
         <v>171</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74">
-        <f>SUM(D65:D74) / 2000</f>
+        <f t="shared" si="3"/>
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4664,25 +4786,25 @@
         <v>86</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="D75">
         <v>166</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="H75">
-        <f>SUM(D66:D75) / 2000</f>
+        <f t="shared" ref="H75:H106" si="6">SUM(D66:D75) / 2000</f>
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4690,25 +4812,25 @@
         <v>91</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="D76">
         <v>179</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
       </c>
       <c r="H76">
-        <f>SUM(D67:D76) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4716,25 +4838,25 @@
         <v>92</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D77">
         <v>183</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
       </c>
       <c r="H77">
-        <f>SUM(D68:D77) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4742,25 +4864,25 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D78">
         <v>173</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
       </c>
       <c r="H78">
-        <f>SUM(D69:D78) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4768,25 +4890,25 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D79">
         <v>181</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
       </c>
       <c r="H79">
-        <f>SUM(D70:D79) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4794,25 +4916,25 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D80">
         <v>172</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86</v>
       </c>
       <c r="G80" t="s">
         <v>54</v>
       </c>
       <c r="H80">
-        <f>SUM(D71:D80) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87849999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4820,25 +4942,25 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D81">
         <v>177</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="G81" t="s">
         <v>45</v>
       </c>
       <c r="H81">
-        <f>SUM(D72:D81) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.874</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4846,25 +4968,25 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D82">
         <v>170</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="G82" t="s">
         <v>48</v>
       </c>
       <c r="H82">
-        <f>SUM(D73:D82) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.872</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4872,25 +4994,25 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D83">
         <v>172</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86</v>
       </c>
       <c r="G83" t="s">
         <v>47</v>
       </c>
       <c r="H83">
-        <f>SUM(D74:D83) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.872</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4898,25 +5020,25 @@
         <v>81</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="D84">
         <v>170</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="G84" t="s">
         <v>51</v>
       </c>
       <c r="H84">
-        <f>SUM(D75:D84) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87150000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4924,25 +5046,25 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D85">
         <v>179</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G85" t="s">
         <v>50</v>
       </c>
       <c r="H85">
-        <f>SUM(D76:D85) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.878</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4950,25 +5072,25 @@
         <v>81</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D86">
         <v>173</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="G86" t="s">
         <v>52</v>
       </c>
       <c r="H86">
-        <f>SUM(D77:D86) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4976,25 +5098,25 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D87">
         <v>181</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="G87" t="s">
         <v>49</v>
       </c>
       <c r="H87">
-        <f>SUM(D78:D87) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.874</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5002,25 +5124,25 @@
         <v>85</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D88">
         <v>175</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G88" t="s">
         <v>55</v>
       </c>
       <c r="H88">
-        <f>SUM(D79:D88) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5028,25 +5150,25 @@
         <v>80</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D89">
         <v>174</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="G89" t="s">
         <v>56</v>
       </c>
       <c r="H89">
-        <f>SUM(D80:D89) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87150000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5054,25 +5176,25 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="D90">
         <v>170</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="G90" t="s">
         <v>57</v>
       </c>
       <c r="H90">
-        <f>SUM(D81:D90) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5080,25 +5202,25 @@
         <v>83</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="D91">
         <v>172</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86</v>
       </c>
       <c r="G91" t="s">
         <v>58</v>
       </c>
       <c r="H91">
-        <f>SUM(D82:D91) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5106,25 +5228,25 @@
         <v>87</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="D92">
         <v>175</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G92" t="s">
         <v>68</v>
       </c>
       <c r="H92">
-        <f>SUM(D83:D92) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5132,25 +5254,25 @@
         <v>83</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D93">
         <v>177</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="G93" t="s">
         <v>59</v>
       </c>
       <c r="H93">
-        <f>SUM(D84:D93) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.873</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5158,25 +5280,25 @@
         <v>89</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D94">
         <v>180</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="G94" t="s">
         <v>60</v>
       </c>
       <c r="H94">
-        <f>SUM(D85:D94) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.878</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5184,25 +5306,25 @@
         <v>87</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D95">
         <v>179</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G95" t="s">
         <v>67</v>
       </c>
       <c r="H95">
-        <f>SUM(D86:D95) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.878</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5210,25 +5332,25 @@
         <v>86</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="D96">
         <v>175</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G96" t="s">
         <v>61</v>
       </c>
       <c r="H96">
-        <f>SUM(D87:D96) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.879</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5236,25 +5358,25 @@
         <v>82</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D97">
         <v>174</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="G97" t="s">
         <v>66</v>
       </c>
       <c r="H97">
-        <f>SUM(D88:D97) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87549999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5262,25 +5384,25 @@
         <v>78</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="D98">
         <v>167</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="G98" t="s">
         <v>62</v>
       </c>
       <c r="H98">
-        <f>SUM(D89:D98) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87150000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5288,25 +5410,25 @@
         <v>80</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="D99">
         <v>176</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
       <c r="G99" t="s">
         <v>63</v>
       </c>
       <c r="H99">
-        <f>SUM(D90:D99) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.87250000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5314,25 +5436,25 @@
         <v>88</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="D100">
         <v>181</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="G100" t="s">
         <v>64</v>
       </c>
       <c r="H100">
-        <f>SUM(D91:D100) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.878</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5340,21 +5462,21 @@
         <v>87</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D101">
         <v>179</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G101" t="s">
         <v>65</v>
       </c>
       <c r="H101">
-        <f>SUM(D92:D101) / 2000</f>
+        <f t="shared" si="6"/>
         <v>0.88149999999999995</v>
       </c>
       <c r="J101" t="s">

--- a/fix-seed.xlsx
+++ b/fix-seed.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oidoz\Documents\programs\reversi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Oikawa\Documents\programs\reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E3D55-82FD-4587-A238-EC3E8065D815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF3F1FF-3B7E-47C4-B018-5A3BC1021196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>T</t>
     <phoneticPr fontId="18"/>
@@ -52,280 +53,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>1…10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1…11</t>
-  </si>
-  <si>
-    <t>1…12</t>
-  </si>
-  <si>
-    <t>1…13</t>
-  </si>
-  <si>
-    <t>1…14</t>
-  </si>
-  <si>
-    <t>1…15</t>
-  </si>
-  <si>
-    <t>1…16</t>
-  </si>
-  <si>
-    <t>1…17</t>
-  </si>
-  <si>
-    <t>1…18</t>
-  </si>
-  <si>
-    <t>1…19</t>
-  </si>
-  <si>
-    <t>1…20</t>
-  </si>
-  <si>
-    <t>1…21</t>
-  </si>
-  <si>
-    <t>1…22</t>
-  </si>
-  <si>
-    <t>1…23</t>
-  </si>
-  <si>
-    <t>1…24</t>
-  </si>
-  <si>
-    <t>1…25</t>
-  </si>
-  <si>
-    <t>1…26</t>
-  </si>
-  <si>
-    <t>1…27</t>
-  </si>
-  <si>
-    <t>1…28</t>
-  </si>
-  <si>
-    <t>1…29</t>
-  </si>
-  <si>
-    <t>1…30</t>
-  </si>
-  <si>
-    <t>1…31</t>
-  </si>
-  <si>
-    <t>1…32</t>
-  </si>
-  <si>
-    <t>1…33</t>
-  </si>
-  <si>
-    <t>1…34</t>
-  </si>
-  <si>
-    <t>1…35</t>
-  </si>
-  <si>
-    <t>1…36</t>
-  </si>
-  <si>
-    <t>1…37</t>
-  </si>
-  <si>
-    <t>1…38</t>
-  </si>
-  <si>
-    <t>1…39</t>
-  </si>
-  <si>
-    <t>1…40</t>
-  </si>
-  <si>
-    <t>1…41</t>
-  </si>
-  <si>
-    <t>1…42</t>
-  </si>
-  <si>
-    <t>1…43</t>
-  </si>
-  <si>
-    <t>1…44</t>
-  </si>
-  <si>
-    <t>1…45</t>
-  </si>
-  <si>
-    <t>1…46</t>
-  </si>
-  <si>
-    <t>1…47</t>
-  </si>
-  <si>
-    <t>1…48</t>
-  </si>
-  <si>
-    <t>1…49</t>
-  </si>
-  <si>
-    <t>1…50</t>
-  </si>
-  <si>
-    <t>1…51</t>
-  </si>
-  <si>
-    <t>1…52</t>
-  </si>
-  <si>
-    <t>1…53</t>
-  </si>
-  <si>
-    <t>1…54</t>
-  </si>
-  <si>
-    <t>1…55</t>
-  </si>
-  <si>
-    <t>1…56</t>
-  </si>
-  <si>
-    <t>1…57</t>
-  </si>
-  <si>
-    <t>1…58</t>
-  </si>
-  <si>
-    <t>1…59</t>
-  </si>
-  <si>
-    <t>1…60</t>
-  </si>
-  <si>
-    <t>1…61</t>
-  </si>
-  <si>
-    <t>1…62</t>
-  </si>
-  <si>
-    <t>1…63</t>
-  </si>
-  <si>
-    <t>1…64</t>
-  </si>
-  <si>
-    <t>1…65</t>
-  </si>
-  <si>
-    <t>1…66</t>
-  </si>
-  <si>
-    <t>1…67</t>
-  </si>
-  <si>
-    <t>1…68</t>
-  </si>
-  <si>
-    <t>1…69</t>
-  </si>
-  <si>
-    <t>1…70</t>
-  </si>
-  <si>
-    <t>1…71</t>
-  </si>
-  <si>
-    <t>1…72</t>
-  </si>
-  <si>
-    <t>1…73</t>
-  </si>
-  <si>
-    <t>1…74</t>
-  </si>
-  <si>
-    <t>1…75</t>
-  </si>
-  <si>
-    <t>1…76</t>
-  </si>
-  <si>
-    <t>1…77</t>
-  </si>
-  <si>
-    <t>1…78</t>
-  </si>
-  <si>
-    <t>1…79</t>
-  </si>
-  <si>
-    <t>1…80</t>
-  </si>
-  <si>
-    <t>1…81</t>
-  </si>
-  <si>
-    <t>1…82</t>
-  </si>
-  <si>
-    <t>1…83</t>
-  </si>
-  <si>
-    <t>1…84</t>
-  </si>
-  <si>
-    <t>1…85</t>
-  </si>
-  <si>
-    <t>1…86</t>
-  </si>
-  <si>
-    <t>1…87</t>
-  </si>
-  <si>
-    <t>1…88</t>
-  </si>
-  <si>
-    <t>1…89</t>
-  </si>
-  <si>
-    <t>1…90</t>
-  </si>
-  <si>
-    <t>1…91</t>
-  </si>
-  <si>
-    <t>1…92</t>
-  </si>
-  <si>
-    <t>1…93</t>
-  </si>
-  <si>
-    <t>1…94</t>
-  </si>
-  <si>
-    <t>1…95</t>
-  </si>
-  <si>
-    <t>1…96</t>
-  </si>
-  <si>
-    <t>1…97</t>
-  </si>
-  <si>
-    <t>1…98</t>
-  </si>
-  <si>
-    <t>1…99</t>
-  </si>
-  <si>
-    <t>1…100</t>
-  </si>
-  <si>
     <t>直近10戦で取ると、60～70が一番勝率が高く、63あたりがベストか！？</t>
     <rPh sb="0" eb="2">
       <t>チョッキン</t>
@@ -344,6 +71,73 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勝率平均</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勝率トップ10(タイ含む)に使用された回数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>重み付き平均</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -938,8 +732,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,11 +836,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(seed</a:t>
+              <a:t>(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>固定</a:t>
+              <a:t>シード値固定</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1866,7 +1663,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2584,16 +2381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2918,15 +2715,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2962,7 +2759,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2981,7 +2778,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3000,7 +2797,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3019,7 +2816,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3038,7 +2835,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3057,7 +2854,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3076,7 +2873,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3095,7 +2892,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3114,7 +2911,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3132,15 +2929,8 @@
         <f t="shared" si="1"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H42" si="2">SUM(D2:D11) / 2000</f>
-        <v>0.83050000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3158,15 +2948,8 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3184,15 +2967,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.86050000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3210,15 +2986,8 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3236,15 +3005,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3262,15 +3024,8 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0.88249999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3288,15 +3043,8 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0.88649999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3314,15 +3062,8 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0.88649999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3340,15 +3081,8 @@
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3366,15 +3100,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3392,15 +3119,8 @@
         <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3418,15 +3138,8 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3444,15 +3157,8 @@
         <f t="shared" si="1"/>
         <v>0.84499999999999997</v>
       </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3470,15 +3176,8 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>0.87450000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3496,15 +3195,8 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>0.87649999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3522,15 +3214,8 @@
         <f t="shared" si="1"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3548,15 +3233,8 @@
         <f t="shared" si="1"/>
         <v>0.83499999999999996</v>
       </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>0.87450000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3574,15 +3252,8 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3600,15 +3271,8 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3626,15 +3290,8 @@
         <f t="shared" si="1"/>
         <v>0.83499999999999996</v>
       </c>
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3652,15 +3309,8 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>0.87150000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3678,15 +3328,8 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>0.86950000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3704,15 +3347,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3730,15 +3366,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3756,15 +3385,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>0.87649999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3782,15 +3404,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3808,15 +3423,8 @@
         <f t="shared" si="1"/>
         <v>0.84499999999999997</v>
       </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3834,15 +3442,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>0.87649999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3860,15 +3461,8 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3886,15 +3480,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3912,15 +3499,8 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3938,15 +3518,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3964,15 +3537,8 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43">
-        <f t="shared" ref="H43:H74" si="3">SUM(D34:D43) / 2000</f>
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3990,15 +3556,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>0.88149999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4016,15 +3575,8 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4042,15 +3594,8 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>0.87749999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4068,15 +3613,8 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4094,15 +3632,8 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4120,15 +3651,8 @@
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="G49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4146,15 +3670,8 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="G50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>0.88749999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4172,15 +3689,8 @@
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="G51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>0.88849999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4198,15 +3708,8 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="G52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>0.88749999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4224,15 +3727,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4250,15 +3746,8 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>0.88849999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4276,15 +3765,8 @@
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="3"/>
-        <v>0.89149999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4302,15 +3784,8 @@
         <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-      <c r="G56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>0.89049999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4328,15 +3803,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4354,15 +3822,8 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4380,15 +3841,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4406,15 +3860,8 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>0.88749999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4432,15 +3879,8 @@
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>0.89249999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4458,15 +3898,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>0.89349999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4484,15 +3917,8 @@
         <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="3"/>
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4510,15 +3936,8 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4536,15 +3955,8 @@
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="3"/>
-        <v>0.89449999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4562,15 +3974,8 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4578,25 +3983,18 @@
         <v>91</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="4">D67-B67</f>
+        <f t="shared" ref="C67:C101" si="2">D67-B67</f>
         <v>94</v>
       </c>
       <c r="D67">
         <v>185</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="5">D67/200</f>
+        <f t="shared" ref="E67:E102" si="3">D67/200</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="3"/>
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4604,25 +4002,18 @@
         <v>92</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D68">
         <v>183</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4630,25 +4021,18 @@
         <v>90</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="D69">
         <v>175</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="3"/>
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4656,25 +4040,18 @@
         <v>91</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D70">
         <v>182</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="3"/>
-        <v>0.90549999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4682,25 +4059,18 @@
         <v>92</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="D71">
         <v>186</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.93</v>
       </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="3"/>
-        <v>0.90549999999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4708,25 +4078,18 @@
         <v>87</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="D72">
         <v>174</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-      <c r="G72" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="3"/>
-        <v>0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4734,25 +4097,18 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="D73">
         <v>172</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-      <c r="G73" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="3"/>
-        <v>0.89800000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4760,25 +4116,18 @@
         <v>83</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D74">
         <v>171</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="3"/>
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4786,25 +4135,18 @@
         <v>86</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="D75">
         <v>166</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75">
-        <f t="shared" ref="H75:H106" si="6">SUM(D66:D75) / 2000</f>
-        <v>0.88449999999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4812,25 +4154,18 @@
         <v>91</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D76">
         <v>179</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G76" t="s">
-        <v>70</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="6"/>
-        <v>0.88649999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4838,25 +4173,18 @@
         <v>92</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D77">
         <v>183</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="6"/>
-        <v>0.88549999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4864,25 +4192,18 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D78">
         <v>173</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="6"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4890,25 +4211,18 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D79">
         <v>181</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-      <c r="G79" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="6"/>
-        <v>0.88349999999999995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4916,25 +4230,18 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D80">
         <v>172</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-      <c r="G80" t="s">
-        <v>54</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="6"/>
-        <v>0.87849999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4942,25 +4249,18 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D81">
         <v>177</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="6"/>
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4968,25 +4268,18 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D82">
         <v>170</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="G82" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="6"/>
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4994,25 +4287,18 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D83">
         <v>172</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-      <c r="G83" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="6"/>
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5020,25 +4306,18 @@
         <v>81</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D84">
         <v>170</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="G84" t="s">
-        <v>51</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="6"/>
-        <v>0.87150000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5046,25 +4325,18 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D85">
         <v>179</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G85" t="s">
-        <v>50</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="6"/>
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5072,25 +4344,18 @@
         <v>81</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D86">
         <v>173</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G86" t="s">
-        <v>52</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="6"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5098,25 +4363,18 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="D87">
         <v>181</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-      <c r="G87" t="s">
-        <v>49</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="6"/>
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5124,25 +4382,18 @@
         <v>85</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D88">
         <v>175</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="6"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5150,25 +4401,18 @@
         <v>80</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="D89">
         <v>174</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-      <c r="G89" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="6"/>
-        <v>0.87150000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5176,25 +4420,18 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D90">
         <v>170</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="G90" t="s">
-        <v>57</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="6"/>
-        <v>0.87050000000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5202,25 +4439,18 @@
         <v>83</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D91">
         <v>172</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-      <c r="G91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="6"/>
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5228,25 +4458,18 @@
         <v>87</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D92">
         <v>175</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G92" t="s">
-        <v>68</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="6"/>
-        <v>0.87050000000000005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5254,25 +4477,18 @@
         <v>83</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="D93">
         <v>177</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="G93" t="s">
-        <v>59</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="6"/>
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5280,25 +4496,18 @@
         <v>89</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="D94">
         <v>180</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="G94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="6"/>
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5306,25 +4515,18 @@
         <v>87</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D95">
         <v>179</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G95" t="s">
-        <v>67</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="6"/>
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5332,25 +4534,18 @@
         <v>86</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D96">
         <v>175</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G96" t="s">
-        <v>61</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="6"/>
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5358,25 +4553,18 @@
         <v>82</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D97">
         <v>174</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-      <c r="G97" t="s">
-        <v>66</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="6"/>
-        <v>0.87549999999999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5384,25 +4572,18 @@
         <v>78</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D98">
         <v>167</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.83499999999999996</v>
       </c>
-      <c r="G98" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="6"/>
-        <v>0.87150000000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5410,25 +4591,18 @@
         <v>80</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="D99">
         <v>176</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
-      <c r="G99" t="s">
-        <v>63</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="6"/>
-        <v>0.87250000000000005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5436,25 +4610,18 @@
         <v>88</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="D100">
         <v>181</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
-      <c r="G100" t="s">
-        <v>64</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="6"/>
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5462,34 +4629,2254 @@
         <v>87</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D101">
         <v>179</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="G101" t="s">
-        <v>65</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="6"/>
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="J101" t="s">
-        <v>96</v>
+      <c r="L101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <f>SUM(B2:B101)/100</f>
+        <v>85.26</v>
+      </c>
+      <c r="C102">
+        <f>SUM(C2:C101)/100</f>
+        <v>90.12</v>
+      </c>
+      <c r="D102">
+        <f>SUM(D2:D101)/100</f>
+        <v>175.38</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>0.87690000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:H101">
-    <sortCondition ref="H11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H11:I101">
+    <sortCondition ref="I11"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856758B3-5B9A-4FF2-9903-EC004C31BC92}">
+  <dimension ref="A1:R94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="14" width="9" customWidth="1"/>
+    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E11" si="0">A2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F10" si="1">E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G11" si="2">F2+1</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H11" si="3">G2+1</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I11" si="4">H2+1</f>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J11" si="5">I2+1</f>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K11" si="6">J2+1</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L11" si="7">K2+1</f>
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M11" si="8">L2+1</f>
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N11" si="9">M2+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.84599999999999986</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E11">
+        <f>A11</f>
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <f>E11+1</f>
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>0.87149999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>0.87149999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0.87199999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>0.87200000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>0.87200000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>0.87250000000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>0.87399999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>0.87400000000000022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>0.87449999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>0.87449999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>0.87549999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>0.87600000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>0.87600000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>0.87650000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0.87650000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>0.87650000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>0.87750000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>0.87799999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>0.87799999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>0.87799999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>0.87800000000000011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>79</v>
+      </c>
+      <c r="C44">
+        <v>0.87850000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>0.87899999999999989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>0.87900000000000011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>86</v>
+      </c>
+      <c r="B47">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>0.87900000000000011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>0.88050000000000017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>0.88050000000000017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>0.88099999999999989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>0.88099999999999989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>46</v>
+      </c>
+      <c r="C59">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>0.88250000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>0.88350000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>0.88450000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>0.88550000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>0.8859999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>0.88650000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>0.88650000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>0.88650000000000007</v>
+      </c>
+      <c r="P67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>39</v>
+      </c>
+      <c r="B68">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>0.88700000000000012</v>
+      </c>
+      <c r="P68">
+        <v>51</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q92" si="10">COUNTIF($E$77:$N$92, P68)</f>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f>P68*Q68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>49</v>
+      </c>
+      <c r="C69">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="P69">
+        <v>52</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69:R92" si="11">P69*Q69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="P70">
+        <v>53</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="B71">
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="P71">
+        <v>54</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>44</v>
+      </c>
+      <c r="B72">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="P72">
+        <v>55</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>0.88850000000000018</v>
+      </c>
+      <c r="P73">
+        <v>56</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="11"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <v>0.8889999999999999</v>
+      </c>
+      <c r="P74">
+        <v>57</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="11"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>0.8889999999999999</v>
+      </c>
+      <c r="P75">
+        <v>58</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="11"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>46</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="P76">
+        <v>59</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="11"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77">
+        <v>57</v>
+      </c>
+      <c r="C77">
+        <v>0.89100000000000024</v>
+      </c>
+      <c r="P77">
+        <v>60</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>45</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+      <c r="C78">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="P78">
+        <v>61</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="11"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>51</v>
+      </c>
+      <c r="B79">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>0.89249999999999985</v>
+      </c>
+      <c r="P79">
+        <v>62</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="11"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>0.89349999999999985</v>
+      </c>
+      <c r="P80">
+        <v>63</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="11"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>53</v>
+      </c>
+      <c r="B81" s="1">
+        <v>62</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.89399999999999991</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:E91" si="12">A81</f>
+        <v>53</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81:G81" si="13">E81+1</f>
+        <v>54</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ref="H81:N81" si="14">G81+1</f>
+        <v>56</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="P81">
+        <v>64</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="11"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>54</v>
+      </c>
+      <c r="B82" s="1">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.89399999999999991</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82:G82" si="15">E82+1</f>
+        <v>55</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:N82" si="16">G82+1</f>
+        <v>57</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="P82">
+        <v>65</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="11"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>64</v>
+      </c>
+      <c r="B83" s="1">
+        <v>73</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.89400000000000013</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:N83" si="17">E83+1</f>
+        <v>65</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="P83">
+        <v>66</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>55</v>
+      </c>
+      <c r="B84" s="1">
+        <v>64</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.89450000000000018</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:N84" si="18">E84+1</f>
+        <v>56</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="P84">
+        <v>67</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="11"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>56</v>
+      </c>
+      <c r="B85" s="1">
+        <v>65</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85:N85" si="19">E85+1</f>
+        <v>57</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="19"/>
+        <v>58</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="19"/>
+        <v>63</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="P85">
+        <v>68</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="11"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>63</v>
+      </c>
+      <c r="B86" s="1">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.89799999999999991</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:N86" si="20">E86+1</f>
+        <v>64</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="20"/>
+        <v>66</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="20"/>
+        <v>67</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="20"/>
+        <v>69</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="P86">
+        <v>69</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="11"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>57</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.90100000000000013</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:N87" si="21">E87+1</f>
+        <v>58</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="P87">
+        <v>70</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>62</v>
+      </c>
+      <c r="B88" s="1">
+        <v>71</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.90250000000000008</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:N88" si="22">E88+1</f>
+        <v>63</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="22"/>
+        <v>64</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="22"/>
+        <v>65</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="22"/>
+        <v>67</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="22"/>
+        <v>68</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="22"/>
+        <v>69</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="P88">
+        <v>71</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="11"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>58</v>
+      </c>
+      <c r="B89" s="1">
+        <v>67</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89:N89" si="23">E89+1</f>
+        <v>59</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="23"/>
+        <v>61</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="23"/>
+        <v>63</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="23"/>
+        <v>66</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="23"/>
+        <v>67</v>
+      </c>
+      <c r="P89">
+        <v>72</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>59</v>
+      </c>
+      <c r="B90" s="1">
+        <v>68</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:N90" si="24">E90+1</f>
+        <v>60</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="24"/>
+        <v>65</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="24"/>
+        <v>66</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="P90">
+        <v>73</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>60</v>
+      </c>
+      <c r="B91" s="1">
+        <v>69</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ref="F91:N91" si="25">E91+1</f>
+        <v>61</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="25"/>
+        <v>62</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="25"/>
+        <v>63</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="P91">
+        <v>74</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>61</v>
+      </c>
+      <c r="B92" s="1">
+        <v>70</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="E92">
+        <f>A92</f>
+        <v>61</v>
+      </c>
+      <c r="F92">
+        <f>E92+1</f>
+        <v>62</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:N92" si="26">F92+1</f>
+        <v>63</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="26"/>
+        <v>67</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="26"/>
+        <v>68</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="26"/>
+        <v>69</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="P92">
+        <v>75</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q94" t="s">
+        <v>12</v>
+      </c>
+      <c r="R94">
+        <f>SUM(R68:R92)/SUM(Q68:Q92)</f>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C92">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>